--- a/ECE_5984_Appl_Machine_Learning_SP22/Homework_3/FlareData.xlsx
+++ b/ECE_5984_Appl_Machine_Learning_SP22/Homework_3/FlareData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20356"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Solar Flare\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agarc\OneDrive\Documents\GitHub\Virginia_Tech_Masters\ECE_5984_Appl_Machine_Learning_SP22\Homework_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F5DEEB-381A-4472-8088-01D1A1B6EC3A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A848BF-3F95-4843-A61E-05A4233E6AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="4005" windowWidth="18690" windowHeight="16875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -1078,24 +1078,24 @@
       <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.90625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.36328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.90625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -1136,7 +1136,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1382,7 +1382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -1464,7 +1464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -1505,7 +1505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -1628,7 +1628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1669,7 +1669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -1710,7 +1710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -1874,7 +1874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -1956,7 +1956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -1997,7 +1997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -2079,7 +2079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -2120,7 +2120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -2161,7 +2161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -2202,7 +2202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -2243,7 +2243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -2325,7 +2325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>3</v>
       </c>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>3</v>
       </c>
@@ -2407,7 +2407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -2448,7 +2448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>3</v>
       </c>
@@ -2489,7 +2489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>3</v>
       </c>
@@ -2571,7 +2571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>3</v>
       </c>
@@ -2612,7 +2612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -2653,7 +2653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>3</v>
       </c>
@@ -2694,7 +2694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>3</v>
       </c>
@@ -2735,7 +2735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>3</v>
       </c>
@@ -2776,7 +2776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -2817,7 +2817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>3</v>
       </c>
@@ -2858,7 +2858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>3</v>
       </c>
@@ -2899,7 +2899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>3</v>
       </c>
@@ -2940,7 +2940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>3</v>
       </c>
@@ -2981,7 +2981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>3</v>
       </c>
@@ -3022,7 +3022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>3</v>
       </c>
@@ -3063,7 +3063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>3</v>
       </c>
@@ -3104,7 +3104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -3145,7 +3145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>3</v>
       </c>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>3</v>
       </c>
@@ -3227,7 +3227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -3268,7 +3268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>3</v>
       </c>
@@ -3309,7 +3309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>3</v>
       </c>
@@ -3350,7 +3350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>3</v>
       </c>
@@ -3391,7 +3391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>7</v>
       </c>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>3</v>
       </c>
@@ -3473,7 +3473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>3</v>
       </c>
@@ -3514,7 +3514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>3</v>
       </c>
@@ -3555,7 +3555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>3</v>
       </c>
@@ -3596,7 +3596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>7</v>
       </c>
@@ -3637,7 +3637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>3</v>
       </c>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>3</v>
       </c>
@@ -3719,7 +3719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>12</v>
       </c>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>3</v>
       </c>
@@ -3801,7 +3801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>0</v>
       </c>
@@ -3842,7 +3842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>3</v>
       </c>
@@ -3883,7 +3883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>9</v>
       </c>
@@ -3924,7 +3924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>3</v>
       </c>
@@ -3965,7 +3965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>7</v>
       </c>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>7</v>
       </c>
@@ -4047,7 +4047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>0</v>
       </c>
@@ -4088,7 +4088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>9</v>
       </c>
@@ -4129,7 +4129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>3</v>
       </c>
@@ -4170,7 +4170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>3</v>
       </c>
@@ -4211,7 +4211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>3</v>
       </c>
@@ -4252,7 +4252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>3</v>
       </c>
@@ -4293,7 +4293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>0</v>
       </c>
@@ -4334,7 +4334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>3</v>
       </c>
@@ -4375,7 +4375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>9</v>
       </c>
@@ -4416,7 +4416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>3</v>
       </c>
@@ -4457,7 +4457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>9</v>
       </c>
@@ -4498,7 +4498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>7</v>
       </c>
@@ -4539,7 +4539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>9</v>
       </c>
@@ -4580,7 +4580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>0</v>
       </c>
@@ -4621,7 +4621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>3</v>
       </c>
@@ -4662,7 +4662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>3</v>
       </c>
@@ -4703,7 +4703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>0</v>
       </c>
@@ -4744,7 +4744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>0</v>
       </c>
@@ -4785,7 +4785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>0</v>
       </c>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>0</v>
       </c>
@@ -4867,7 +4867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>3</v>
       </c>
@@ -4908,7 +4908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>9</v>
       </c>
@@ -4949,7 +4949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>9</v>
       </c>
@@ -4990,7 +4990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>0</v>
       </c>
@@ -5031,7 +5031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>0</v>
       </c>
@@ -5072,7 +5072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>0</v>
       </c>
@@ -5113,7 +5113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>0</v>
       </c>
@@ -5154,7 +5154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>0</v>
       </c>
@@ -5195,7 +5195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>12</v>
       </c>
@@ -5236,7 +5236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>9</v>
       </c>
@@ -5277,7 +5277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>9</v>
       </c>
@@ -5318,7 +5318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>9</v>
       </c>
@@ -5359,7 +5359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>9</v>
       </c>
@@ -5400,7 +5400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>7</v>
       </c>
@@ -5441,7 +5441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>0</v>
       </c>
@@ -5482,7 +5482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>9</v>
       </c>
@@ -5523,7 +5523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>3</v>
       </c>
@@ -5564,7 +5564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>3</v>
       </c>
@@ -5605,7 +5605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>9</v>
       </c>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>7</v>
       </c>
@@ -5687,7 +5687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>0</v>
       </c>
@@ -5728,7 +5728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>0</v>
       </c>
@@ -5769,7 +5769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>9</v>
       </c>
@@ -5810,7 +5810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>3</v>
       </c>
@@ -5851,7 +5851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>9</v>
       </c>
@@ -5892,7 +5892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>0</v>
       </c>
@@ -5933,7 +5933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>0</v>
       </c>
@@ -5974,7 +5974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>7</v>
       </c>
@@ -6015,7 +6015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>7</v>
       </c>
@@ -6056,7 +6056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>9</v>
       </c>
@@ -6097,7 +6097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>0</v>
       </c>
@@ -6138,7 +6138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>9</v>
       </c>
@@ -6179,7 +6179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>7</v>
       </c>
@@ -6220,7 +6220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>0</v>
       </c>
@@ -6261,7 +6261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>9</v>
       </c>
@@ -6302,7 +6302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>7</v>
       </c>
@@ -6343,7 +6343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>3</v>
       </c>
@@ -6384,7 +6384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>9</v>
       </c>
@@ -6425,7 +6425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>3</v>
       </c>
@@ -6466,7 +6466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>9</v>
       </c>
@@ -6507,7 +6507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>7</v>
       </c>
@@ -6548,7 +6548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>7</v>
       </c>
@@ -6589,7 +6589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>7</v>
       </c>
@@ -6630,7 +6630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>3</v>
       </c>
@@ -6671,7 +6671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>9</v>
       </c>
@@ -6712,7 +6712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>0</v>
       </c>
@@ -6753,7 +6753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>9</v>
       </c>
@@ -6794,7 +6794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>7</v>
       </c>
@@ -6835,7 +6835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>7</v>
       </c>
@@ -6876,7 +6876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>0</v>
       </c>
@@ -6917,7 +6917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>7</v>
       </c>
@@ -6958,7 +6958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>0</v>
       </c>
@@ -6999,7 +6999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>0</v>
       </c>
@@ -7040,7 +7040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>9</v>
       </c>
@@ -7081,7 +7081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>3</v>
       </c>
@@ -7122,7 +7122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>7</v>
       </c>
@@ -7163,7 +7163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>7</v>
       </c>
@@ -7204,7 +7204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>9</v>
       </c>
@@ -7245,7 +7245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>9</v>
       </c>
@@ -7286,7 +7286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>0</v>
       </c>
@@ -7327,7 +7327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>7</v>
       </c>
@@ -7368,7 +7368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>9</v>
       </c>
@@ -7409,7 +7409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>0</v>
       </c>
@@ -7450,7 +7450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>0</v>
       </c>
@@ -7491,7 +7491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>9</v>
       </c>
@@ -7532,7 +7532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>3</v>
       </c>
@@ -7573,7 +7573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>0</v>
       </c>
@@ -7614,7 +7614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>7</v>
       </c>
@@ -7655,7 +7655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>9</v>
       </c>
@@ -7696,7 +7696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>0</v>
       </c>
@@ -7737,7 +7737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>0</v>
       </c>
@@ -7778,7 +7778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>9</v>
       </c>
@@ -7819,7 +7819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>7</v>
       </c>
@@ -7860,7 +7860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>9</v>
       </c>
@@ -7901,7 +7901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>0</v>
       </c>
@@ -7942,7 +7942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>9</v>
       </c>
@@ -7983,7 +7983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>9</v>
       </c>
@@ -8024,7 +8024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>0</v>
       </c>
@@ -8065,7 +8065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>0</v>
       </c>
@@ -8106,7 +8106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>12</v>
       </c>
@@ -8147,7 +8147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>7</v>
       </c>
@@ -8188,7 +8188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>3</v>
       </c>
@@ -8229,7 +8229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>0</v>
       </c>
@@ -8270,7 +8270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>0</v>
       </c>
@@ -8311,7 +8311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>9</v>
       </c>
@@ -8352,7 +8352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>0</v>
       </c>
@@ -8393,7 +8393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>0</v>
       </c>
@@ -8434,7 +8434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>3</v>
       </c>
@@ -8475,7 +8475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>3</v>
       </c>
@@ -8516,7 +8516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>7</v>
       </c>
@@ -8557,7 +8557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>0</v>
       </c>
@@ -8598,7 +8598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>0</v>
       </c>
@@ -8639,7 +8639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>0</v>
       </c>
@@ -8680,7 +8680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>7</v>
       </c>
@@ -8721,7 +8721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>7</v>
       </c>
@@ -8762,7 +8762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>3</v>
       </c>
@@ -8803,7 +8803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>9</v>
       </c>
@@ -8844,7 +8844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>9</v>
       </c>
@@ -8885,7 +8885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>9</v>
       </c>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>0</v>
       </c>
@@ -8967,7 +8967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>0</v>
       </c>
@@ -9008,7 +9008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>3</v>
       </c>
@@ -9049,7 +9049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>3</v>
       </c>
@@ -9090,7 +9090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>9</v>
       </c>
@@ -9131,7 +9131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>7</v>
       </c>
@@ -9172,7 +9172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>7</v>
       </c>
@@ -9213,7 +9213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>7</v>
       </c>
@@ -9254,7 +9254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>0</v>
       </c>
@@ -9295,7 +9295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>3</v>
       </c>
@@ -9336,7 +9336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>7</v>
       </c>
@@ -9377,7 +9377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>7</v>
       </c>
@@ -9418,7 +9418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>7</v>
       </c>
@@ -9459,7 +9459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>7</v>
       </c>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>3</v>
       </c>
@@ -9541,7 +9541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>0</v>
       </c>
@@ -9582,7 +9582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>3</v>
       </c>
@@ -9623,7 +9623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>7</v>
       </c>
@@ -9664,7 +9664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>0</v>
       </c>
@@ -9705,7 +9705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>0</v>
       </c>
@@ -9746,7 +9746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>3</v>
       </c>
@@ -9787,7 +9787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>7</v>
       </c>
@@ -9828,7 +9828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>7</v>
       </c>
@@ -9869,7 +9869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>7</v>
       </c>
@@ -9910,7 +9910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>7</v>
       </c>
@@ -9951,7 +9951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>7</v>
       </c>
@@ -9992,7 +9992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>0</v>
       </c>
@@ -10033,7 +10033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>0</v>
       </c>
@@ -10074,7 +10074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>11</v>
       </c>
@@ -10115,7 +10115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>0</v>
       </c>
@@ -10156,7 +10156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>12</v>
       </c>
@@ -10197,7 +10197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>0</v>
       </c>
@@ -10238,7 +10238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>3</v>
       </c>
@@ -10279,7 +10279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>7</v>
       </c>
@@ -10320,7 +10320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>0</v>
       </c>
@@ -10361,7 +10361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>3</v>
       </c>
@@ -10402,7 +10402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>9</v>
       </c>
@@ -10443,7 +10443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>7</v>
       </c>
@@ -10484,7 +10484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>0</v>
       </c>
@@ -10525,7 +10525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>3</v>
       </c>
@@ -10566,7 +10566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>11</v>
       </c>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>12</v>
       </c>
@@ -10648,7 +10648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>9</v>
       </c>
@@ -10689,7 +10689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>3</v>
       </c>
@@ -10730,7 +10730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>7</v>
       </c>
@@ -10771,7 +10771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>7</v>
       </c>
@@ -10812,7 +10812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>3</v>
       </c>
@@ -10853,7 +10853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>0</v>
       </c>
@@ -10894,7 +10894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>9</v>
       </c>
@@ -10935,7 +10935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>0</v>
       </c>
@@ -10976,7 +10976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>3</v>
       </c>
@@ -11017,7 +11017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>12</v>
       </c>
@@ -11058,7 +11058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>12</v>
       </c>
@@ -11099,7 +11099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>0</v>
       </c>
@@ -11140,7 +11140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>3</v>
       </c>
@@ -11181,7 +11181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>7</v>
       </c>
@@ -11222,7 +11222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>7</v>
       </c>
@@ -11263,7 +11263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>3</v>
       </c>
@@ -11304,7 +11304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>9</v>
       </c>
@@ -11345,7 +11345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>9</v>
       </c>
@@ -11386,7 +11386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>9</v>
       </c>
@@ -11427,7 +11427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>9</v>
       </c>
@@ -11468,7 +11468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>0</v>
       </c>
@@ -11509,7 +11509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>0</v>
       </c>
@@ -11550,7 +11550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>11</v>
       </c>
@@ -11591,7 +11591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>12</v>
       </c>
@@ -11632,7 +11632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>9</v>
       </c>
@@ -11673,7 +11673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>3</v>
       </c>
@@ -11714,7 +11714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>3</v>
       </c>
@@ -11755,7 +11755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>9</v>
       </c>
@@ -11796,7 +11796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>9</v>
       </c>
@@ -11837,7 +11837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>9</v>
       </c>
@@ -11878,7 +11878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>7</v>
       </c>
@@ -11919,7 +11919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>0</v>
       </c>
@@ -11960,7 +11960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>11</v>
       </c>
@@ -12001,7 +12001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>12</v>
       </c>
@@ -12042,7 +12042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>0</v>
       </c>
@@ -12083,7 +12083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>3</v>
       </c>
@@ -12124,7 +12124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>0</v>
       </c>
@@ -12165,7 +12165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>0</v>
       </c>
@@ -12206,7 +12206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>7</v>
       </c>
@@ -12247,7 +12247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>9</v>
       </c>
@@ -12288,7 +12288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>12</v>
       </c>
@@ -12329,7 +12329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>7</v>
       </c>
@@ -12370,7 +12370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>9</v>
       </c>
@@ -12411,7 +12411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>12</v>
       </c>
@@ -12452,7 +12452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>12</v>
       </c>
@@ -12493,7 +12493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>9</v>
       </c>
@@ -12534,7 +12534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>3</v>
       </c>
@@ -12575,7 +12575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>0</v>
       </c>
@@ -12616,7 +12616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>7</v>
       </c>
@@ -12657,7 +12657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>12</v>
       </c>
@@ -12698,7 +12698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>7</v>
       </c>
@@ -12739,7 +12739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>9</v>
       </c>
@@ -12780,7 +12780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>11</v>
       </c>
@@ -12821,7 +12821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>12</v>
       </c>
@@ -12862,7 +12862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>9</v>
       </c>
@@ -12903,7 +12903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>3</v>
       </c>
@@ -12944,7 +12944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>0</v>
       </c>
@@ -12985,7 +12985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>12</v>
       </c>
@@ -13026,7 +13026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>9</v>
       </c>
@@ -13067,7 +13067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>11</v>
       </c>
@@ -13108,7 +13108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>12</v>
       </c>
@@ -13149,7 +13149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>9</v>
       </c>
@@ -13190,7 +13190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>3</v>
       </c>
@@ -13231,7 +13231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>9</v>
       </c>
@@ -13272,7 +13272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>12</v>
       </c>
@@ -13313,7 +13313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>9</v>
       </c>
@@ -13354,7 +13354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>11</v>
       </c>
@@ -13395,7 +13395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>12</v>
       </c>
@@ -13436,7 +13436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>9</v>
       </c>
@@ -13477,7 +13477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>3</v>
       </c>
@@ -13518,7 +13518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>9</v>
       </c>
@@ -13559,7 +13559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>0</v>
       </c>
@@ -13600,7 +13600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>7</v>
       </c>
@@ -13641,7 +13641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>7</v>
       </c>
@@ -13682,7 +13682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>9</v>
       </c>
@@ -13723,7 +13723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>9</v>
       </c>
@@ -13764,7 +13764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>12</v>
       </c>
@@ -13805,7 +13805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>9</v>
       </c>
@@ -13846,7 +13846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>3</v>
       </c>
@@ -13887,7 +13887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>9</v>
       </c>
@@ -13928,7 +13928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>0</v>
       </c>
@@ -13969,7 +13969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>3</v>
       </c>
@@ -14010,7 +14010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>3</v>
       </c>
@@ -14051,7 +14051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>0</v>
       </c>
@@ -14092,7 +14092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>9</v>
       </c>
@@ -14133,7 +14133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>3</v>
       </c>
@@ -14174,7 +14174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>0</v>
       </c>
@@ -14215,7 +14215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>3</v>
       </c>
@@ -14256,7 +14256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>12</v>
       </c>
@@ -14297,7 +14297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>0</v>
       </c>
@@ -14338,7 +14338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>12</v>
       </c>
@@ -14393,212 +14393,212 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="71.90625" customWidth="1"/>
+    <col min="1" max="1" width="71.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>66</v>
       </c>
